--- a/Base Entrada e Saída.xlsx
+++ b/Base Entrada e Saída.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anheuserbuschinbev-my.sharepoint.com/personal/99823452_ab-inbev_com/Documents/My Documents/Classes/Power BI/Base Financeira/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{4A681B66-1603-4303-8404-210363742FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9A19D90-CD28-4DDE-93AE-AA4A66FB12A1}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="8_{4A681B66-1603-4303-8404-210363742FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E784BB06-0B93-4D56-BE0E-DC6D23BD1274}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{CA7F0123-5177-4A82-BAED-E8ED1757771A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2" xr2:uid="{CA7F0123-5177-4A82-BAED-E8ED1757771A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Despesas" sheetId="1" r:id="rId1"/>
-    <sheet name="Receita" sheetId="2" r:id="rId2"/>
-    <sheet name="Provisionamento" sheetId="3" r:id="rId3"/>
-    <sheet name="Prospecto" sheetId="4" r:id="rId4"/>
+    <sheet name="Provisionamento" sheetId="3" state="hidden" r:id="rId1"/>
+    <sheet name="Prospecto" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="Despesas" sheetId="1" r:id="rId3"/>
+    <sheet name="Receita" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>Data da Despesa</t>
   </si>
@@ -80,9 +80,6 @@
     <t>PRESENTE</t>
   </si>
   <si>
-    <t>PIX NUBANK</t>
-  </si>
-  <si>
     <t>PRODUTOS NATURAIS</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>SAÚDE</t>
   </si>
   <si>
-    <t>PIX SANTANDER</t>
-  </si>
-  <si>
     <t>Data do Recebimento</t>
   </si>
   <si>
@@ -210,6 +204,42 @@
   </si>
   <si>
     <t>IPTU 2025</t>
+  </si>
+  <si>
+    <t>SANTANDER</t>
+  </si>
+  <si>
+    <t>NUBANK</t>
+  </si>
+  <si>
+    <t>SALDO NUBANK</t>
+  </si>
+  <si>
+    <t>SALDO DO MÊS VIGENTE</t>
+  </si>
+  <si>
+    <t>ODONTOLOGIA</t>
+  </si>
+  <si>
+    <t>CABELO</t>
+  </si>
+  <si>
+    <t>QUITAR APARTAMENTO</t>
+  </si>
+  <si>
+    <t>IMPLANTE CAPILAR TIAGO</t>
+  </si>
+  <si>
+    <t>IMPLANTE ODONTOLÓGICO TIAGO</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>META QUITAR APARTAMENTO</t>
+  </si>
+  <si>
+    <t>FUNDO DE RESERVA</t>
   </si>
 </sst>
 </file>
@@ -581,220 +611,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6407DAD-8862-495F-9741-03D241EB5CE6}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="B1 F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>45628</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>45636</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>45628</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>45632</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="2">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D8621E-6544-42F4-97D0-032D831F6F5D}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>45628</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A636B8-7336-4417-B8B6-AFAD3EE03DB9}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -811,25 +631,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -840,19 +660,19 @@
         <v>1500</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -863,19 +683,19 @@
         <v>800</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -884,12 +704,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106F7AEB-7733-468A-98B7-8F131CBC4AD3}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -903,19 +723,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -926,10 +746,10 @@
         <v>100000</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -940,13 +760,13 @@
         <v>12000</v>
       </c>
       <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
         <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -957,13 +777,387 @@
         <v>34000</v>
       </c>
       <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6407DAD-8862-495F-9741-03D241EB5CE6}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>48</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>49</v>
+      </c>
+      <c r="G4" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>46368</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>46003</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>46733</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D8621E-6544-42F4-97D0-032D831F6F5D}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
